--- a/posesiones/1381290.xlsx
+++ b/posesiones/1381290.xlsx
@@ -1943,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>16</v>
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>15</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R14">
         <v>14</v>
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>15</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2634,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>20</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2737,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>11</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R24">
         <v>11</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R27">
         <v>21</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3228,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R29">
         <v>11</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R31">
         <v>15</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R33">
         <v>3</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3581,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R36">
         <v>11</v>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3684,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38">
         <v>12</v>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3784,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R40">
         <v>20</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3887,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R42">
         <v>12</v>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4081,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R46">
         <v>20</v>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R48">
         <v>7</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4710,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R59">
         <v>30</v>
@@ -4763,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R60">
         <v>14</v>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R61">
         <v>18</v>
@@ -4869,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R62">
         <v>10</v>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5019,7 +5019,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R65">
         <v>7</v>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5216,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R69">
         <v>20</v>
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R70">
         <v>14</v>
@@ -5319,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R72">
         <v>22</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R74">
         <v>5</v>
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R76">
         <v>15</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5669,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R78">
         <v>29</v>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5769,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R80">
         <v>16</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5869,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R82">
         <v>17</v>
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R84">
         <v>10</v>
@@ -6025,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R85">
         <v>19</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R87">
         <v>17</v>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6228,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R89">
         <v>15</v>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6516,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R95">
         <v>17</v>
@@ -6566,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6616,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R97">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6719,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R99">
         <v>17</v>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6819,7 +6819,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R101">
         <v>24</v>
@@ -6869,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6919,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R103">
         <v>4</v>
@@ -6963,10 +6963,10 @@
         <v>1</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7154,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7195,10 +7195,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7248,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R110">
         <v>11</v>
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7445,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7492,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7589,7 +7589,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R117">
         <v>21</v>
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7692,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R119">
         <v>15</v>
@@ -7745,7 +7745,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R120">
         <v>20</v>
@@ -7795,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7845,7 +7845,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R122">
         <v>22</v>
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7948,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R124">
         <v>12</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8051,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R126">
         <v>11</v>
@@ -8104,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R127">
         <v>18</v>
@@ -8157,7 +8157,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R128">
         <v>11</v>
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8304,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R131">
         <v>14</v>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8404,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R133">
         <v>23</v>
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8507,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R135">
         <v>6</v>
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8610,7 +8610,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R137">
         <v>12</v>
@@ -8663,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8713,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R139">
         <v>11</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8951,7 +8951,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R144">
         <v>11</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9051,7 +9051,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R146">
         <v>5</v>
@@ -9104,7 +9104,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R147">
         <v>19</v>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9207,7 +9207,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R149">
         <v>9</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9304,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9448,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R154">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R155">
         <v>14</v>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9601,7 +9601,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R157">
         <v>28</v>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9704,7 +9704,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R159">
         <v>5</v>
@@ -9757,7 +9757,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R160">
         <v>20</v>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9904,7 +9904,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R163">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -10007,7 +10007,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R165">
         <v>16</v>
@@ -10060,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10110,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R167">
         <v>11</v>
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10207,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10254,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10304,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10354,7 +10354,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R172">
         <v>19</v>
@@ -10407,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10645,7 +10645,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R178">
         <v>10</v>
@@ -10698,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R179">
         <v>12</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10795,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10845,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R182">
         <v>15</v>
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10945,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R184">
         <v>12</v>
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11042,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11095,7 +11095,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R187">
         <v>12</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11195,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R189">
         <v>10</v>
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11292,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11345,7 +11345,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R192">
         <v>16</v>
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11442,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11589,7 +11589,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R197">
         <v>15</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11686,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11786,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R201">
         <v>24</v>
@@ -11839,7 +11839,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R202">
         <v>11</v>
@@ -11892,7 +11892,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R203">
         <v>7</v>
@@ -11942,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11992,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R205">
         <v>15</v>
@@ -12042,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12089,7 +12089,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12189,7 +12189,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R209">
         <v>32</v>
@@ -12242,7 +12242,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12289,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12336,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12383,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12430,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12480,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R215">
         <v>4</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12624,7 +12624,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R218">
         <v>16</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12724,7 +12724,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R220">
         <v>14</v>
@@ -12774,7 +12774,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12821,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12868,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12965,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R225">
         <v>10</v>
@@ -13009,10 +13009,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q226">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13106,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13153,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13200,7 +13200,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13294,7 +13294,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13335,10 +13335,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q233">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13385,7 +13385,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13435,7 +13435,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13482,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13532,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13579,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13629,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13679,7 +13679,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R240">
         <v>32</v>
@@ -13729,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13776,7 +13776,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13873,7 +13873,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R244">
         <v>14</v>
@@ -13923,7 +13923,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14067,7 +14067,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R248">
         <v>17</v>
@@ -14117,7 +14117,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14167,7 +14167,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R250">
         <v>23</v>
@@ -14220,7 +14220,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14270,7 +14270,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R252">
         <v>15</v>
@@ -14320,7 +14320,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14370,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R254">
         <v>21</v>
@@ -14420,7 +14420,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14467,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14514,7 +14514,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14561,7 +14561,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14658,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14705,7 +14705,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14752,7 +14752,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14799,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14849,7 +14849,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R264">
         <v>45</v>
@@ -14902,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14949,7 +14949,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14996,7 +14996,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15043,7 +15043,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15090,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15137,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15237,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R272">
         <v>24</v>
@@ -15287,7 +15287,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15334,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15384,7 +15384,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R275">
         <v>0</v>
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15484,7 +15484,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15534,7 +15534,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R278">
         <v>33</v>
@@ -15584,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15631,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15678,7 +15678,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15728,7 +15728,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15778,7 +15778,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R283">
         <v>17</v>
@@ -15831,7 +15831,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15881,7 +15881,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R285">
         <v>17</v>
@@ -15934,7 +15934,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15984,7 +15984,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R287">
         <v>7</v>
@@ -16034,7 +16034,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16081,7 +16081,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16128,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16225,7 +16225,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R292">
         <v>14</v>
@@ -16278,7 +16278,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R293">
         <v>24</v>
@@ -16331,7 +16331,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16378,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16425,7 +16425,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16472,7 +16472,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16519,7 +16519,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16566,7 +16566,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16616,7 +16616,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R300">
         <v>0</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16713,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16763,7 +16763,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R303">
         <v>14</v>
@@ -16813,7 +16813,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16863,7 +16863,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R305">
         <v>10</v>
@@ -16913,7 +16913,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16957,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -17007,7 +17007,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R308">
         <v>20</v>
@@ -17060,7 +17060,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17110,7 +17110,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R310">
         <v>6</v>
@@ -17160,7 +17160,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17210,7 +17210,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R312">
         <v>29</v>
@@ -17263,7 +17263,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17313,7 +17313,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R314">
         <v>0</v>
@@ -17363,7 +17363,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17410,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17457,7 +17457,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17504,7 +17504,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17551,7 +17551,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17601,7 +17601,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R320">
         <v>14</v>
@@ -17651,7 +17651,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17698,7 +17698,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17792,7 +17792,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17839,7 +17839,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17886,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18033,7 +18033,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R329">
         <v>21</v>
@@ -18086,7 +18086,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R330">
         <v>8</v>
@@ -18139,7 +18139,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R331">
         <v>22</v>
@@ -18189,7 +18189,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18239,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R333">
         <v>6</v>
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18339,7 +18339,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R335">
         <v>10</v>
@@ -18389,7 +18389,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18436,7 +18436,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18483,7 +18483,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18530,7 +18530,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18580,7 +18580,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R340">
         <v>26</v>
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18680,7 +18680,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18774,7 +18774,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18821,7 +18821,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18871,7 +18871,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R346">
         <v>19</v>
@@ -18921,7 +18921,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18968,7 +18968,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -19015,7 +19015,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19062,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19112,7 +19112,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R351">
         <v>18</v>
@@ -19162,7 +19162,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19209,7 +19209,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19259,7 +19259,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19309,7 +19309,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R355">
         <v>21</v>
@@ -19359,7 +19359,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19412,7 +19412,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R357">
         <v>9</v>
@@ -19462,7 +19462,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19512,7 +19512,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R359">
         <v>19</v>
@@ -19565,7 +19565,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R360">
         <v>17</v>
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19665,7 +19665,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R362">
         <v>1</v>
@@ -19715,7 +19715,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19762,7 +19762,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19812,7 +19812,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R365">
         <v>4</v>
@@ -19862,7 +19862,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19903,10 +19903,10 @@
         <v>1</v>
       </c>
       <c r="P367" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q367">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19953,7 +19953,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -20000,7 +20000,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20041,10 +20041,10 @@
         <v>1</v>
       </c>
       <c r="P370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q370">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20094,7 +20094,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R371">
         <v>13</v>
@@ -20141,7 +20141,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20188,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R373">
         <v>24</v>
@@ -20238,7 +20238,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20285,7 +20285,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20332,7 +20332,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20379,7 +20379,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20429,7 +20429,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R378">
         <v>24</v>
@@ -20482,7 +20482,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20529,7 +20529,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20579,7 +20579,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20629,7 +20629,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R382">
         <v>18</v>
@@ -20682,7 +20682,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R383">
         <v>17</v>
@@ -20735,7 +20735,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20785,7 +20785,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R385">
         <v>17</v>
@@ -20835,7 +20835,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20882,7 +20882,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20932,7 +20932,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R388">
         <v>11</v>
@@ -20982,7 +20982,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21029,7 +21029,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21076,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21126,7 +21126,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21173,7 +21173,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21220,7 +21220,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21267,7 +21267,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21317,7 +21317,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R396">
         <v>29</v>
@@ -21370,7 +21370,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21467,7 +21467,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21514,7 +21514,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21608,7 +21608,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21702,7 +21702,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21749,7 +21749,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21796,7 +21796,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21843,7 +21843,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21893,7 +21893,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R408">
         <v>17</v>
@@ -21946,7 +21946,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21990,7 +21990,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22040,7 +22040,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R411">
         <v>9</v>
@@ -22090,7 +22090,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22137,7 +22137,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22184,7 +22184,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22231,7 +22231,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22281,7 +22281,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R416">
         <v>13</v>
@@ -22334,7 +22334,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22381,7 +22381,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22428,7 +22428,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22475,7 +22475,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22522,7 +22522,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22569,7 +22569,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22616,7 +22616,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22663,7 +22663,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22713,7 +22713,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R425">
         <v>21</v>
@@ -22763,7 +22763,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22813,7 +22813,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22863,7 +22863,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R428">
         <v>21</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22963,7 +22963,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R430">
         <v>11</v>
@@ -23013,7 +23013,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23060,7 +23060,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23107,7 +23107,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23157,7 +23157,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R434">
         <v>0</v>
@@ -23210,7 +23210,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R435">
         <v>11</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23310,7 +23310,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R437">
         <v>6</v>
@@ -23363,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23410,7 +23410,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23604,7 +23604,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23651,7 +23651,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23745,7 +23745,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23842,7 +23842,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R448">
         <v>25</v>
@@ -23895,7 +23895,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R449">
         <v>10</v>
@@ -23945,7 +23945,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23995,7 +23995,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R451">
         <v>12</v>
@@ -24045,7 +24045,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24095,7 +24095,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R453">
         <v>11</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24239,7 +24239,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24286,7 +24286,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24333,7 +24333,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24383,7 +24383,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R459">
         <v>6</v>
@@ -24436,7 +24436,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R460">
         <v>4</v>
@@ -24486,7 +24486,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24533,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24583,7 +24583,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R463">
         <v>0</v>
@@ -24636,7 +24636,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24780,7 +24780,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R467">
         <v>22</v>
@@ -24833,7 +24833,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R468">
         <v>11</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24930,7 +24930,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24977,7 +24977,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25027,7 +25027,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R472">
         <v>19</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25127,7 +25127,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25177,7 +25177,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R475">
         <v>13</v>
@@ -25227,7 +25227,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25274,7 +25274,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25324,7 +25324,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R478">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R479">
         <v>13</v>
@@ -25430,7 +25430,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25477,7 +25477,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25524,7 +25524,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25571,7 +25571,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25618,7 +25618,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25665,7 +25665,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25712,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25762,7 +25762,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R487">
         <v>5</v>
@@ -25815,7 +25815,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R488">
         <v>16</v>
@@ -25868,7 +25868,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R489">
         <v>13</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25968,7 +25968,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26018,7 +26018,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R492">
         <v>22</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26121,7 +26121,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R494">
         <v>13</v>
@@ -26171,7 +26171,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26221,7 +26221,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R496">
         <v>5</v>
@@ -26271,7 +26271,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26315,7 +26315,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26365,7 +26365,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R499">
         <v>4</v>
@@ -26415,7 +26415,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26465,7 +26465,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26512,7 +26512,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26559,7 +26559,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26606,7 +26606,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26656,7 +26656,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R505">
         <v>16</v>
@@ -26706,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26753,7 +26753,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26800,7 +26800,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26850,7 +26850,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R509">
         <v>8</v>
@@ -26903,7 +26903,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R510">
         <v>18</v>
@@ -26953,7 +26953,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -27003,7 +27003,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R512">
         <v>13</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27103,7 +27103,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R514">
         <v>12</v>
@@ -27150,7 +27150,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27200,7 +27200,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R516">
         <v>2</v>
@@ -27250,7 +27250,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27297,7 +27297,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27344,7 +27344,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27441,7 +27441,7 @@
         <v>1</v>
       </c>
       <c r="Q521">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R521">
         <v>6</v>
@@ -27494,7 +27494,7 @@
         <v>1</v>
       </c>
       <c r="Q522">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R522">
         <v>6</v>
@@ -27547,7 +27547,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27597,7 +27597,7 @@
         <v>1</v>
       </c>
       <c r="Q524">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R524">
         <v>6</v>
@@ -27647,7 +27647,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27697,7 +27697,7 @@
         <v>1</v>
       </c>
       <c r="Q526">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R526">
         <v>5</v>
@@ -27753,7 +27753,7 @@
         <v>1</v>
       </c>
       <c r="Q527">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R527">
         <v>3</v>
@@ -27797,10 +27797,10 @@
         <v>1</v>
       </c>
       <c r="P528" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q528">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="529" spans="1:17">
@@ -27841,7 +27841,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
